--- a/data/trans_dic/P50_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P50_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con cierta dificultad o más para llegar a fin de mes</t>
+          <t>Población con cierta dificultad o más para llegar a fin de mes (tasa de respuesta: 99,21%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>50,48%</t>
+          <t>45,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42,98%</t>
+          <t>40,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>40,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>42,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>56,45%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>47,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>47,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>50,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>40,79%</t>
+          <t>45,93%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>54,51%</t>
+          <t>42,6%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>49,01%</t>
+          <t>42,74%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>49,62%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>48,12%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>43,34%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>41,79%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>42,69%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>44,26%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>43,54; 57,33</t>
+          <t>34,13; 59,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,96; 52,15</t>
+          <t>30,28; 58,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,63; 54,27</t>
+          <t>33,9; 48,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,84; 51,11</t>
+          <t>36,12; 51,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,63; 62,8</t>
+          <t>23,57; 46,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,65; 53,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,09; 53,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,31; 49,25</t>
+          <t>40,28; 60,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,99; 46,35</t>
+          <t>37,86; 54,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,17; 60,44</t>
+          <t>36,68; 48,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>44,48; 52,96</t>
+          <t>37,87; 48,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>40,39; 50,79</t>
+          <t>41,52; 59,19</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>41,27; 49,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>37,04; 46,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>50,84; 60,17</t>
+          <t>41,08; 55,99</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>36,99; 50,29</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>37,48; 46,56</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>38,52; 47,53</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>35,43; 51,32</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>30,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>32,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,91%</t>
+          <t>31,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,79%</t>
+          <t>37,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>31,83%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>45,62%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>36,95%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>39,4%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>45,78%</t>
+          <t>36,34%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>29,45%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>34,75%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>34,66%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>35,58%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,95; 39,0</t>
+          <t>28,98; 42,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,87; 36,47</t>
+          <t>21,68; 31,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,97; 36,36</t>
+          <t>26,3; 35,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,97; 37,32</t>
+          <t>28,3; 37,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,22; 50,84</t>
+          <t>26,52; 37,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,55; 44,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,01; 36,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,66; 42,52</t>
+          <t>31,31; 43,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,35; 41,1</t>
+          <t>26,53; 36,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>40,35; 50,13</t>
+          <t>34,43; 43,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,49; 40,8</t>
+          <t>33,05; 40,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,92; 35,41</t>
+          <t>33,8; 44,68</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>32,49; 38,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>31,37; 37,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>42,36; 49,29</t>
+          <t>31,68; 40,92</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>25,99; 33,65</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>31,49; 37,85</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>31,61; 37,77</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>31,45; 39,68</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>33,91%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>19,9%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>17,16%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>17,72%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>20,49%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,01; 26,19</t>
+          <t>12,42; 23,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,01; 26,43</t>
+          <t>14,07; 25,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,69; 19,21</t>
+          <t>10,28; 18,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,6; 20,8</t>
+          <t>13,05; 21,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,59; 33,61</t>
+          <t>15,39; 27,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,51; 29,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,99; 21,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,35; 24,84</t>
+          <t>17,22; 28,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,61; 22,46</t>
+          <t>11,49; 20,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>27,96; 39,63</t>
+          <t>16,46; 23,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,48; 26,52</t>
+          <t>15,93; 22,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,98; 22,07</t>
+          <t>16,54; 24,74</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>15,44; 20,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>15,31; 20,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>25,76; 34,69</t>
+          <t>16,32; 24,09</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>14,09; 21,4</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>14,43; 19,98</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>15,33; 20,58</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>17,11; 24,4</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>35,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>38,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>35,22%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>38,24%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>34,77%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>37,7%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>35,58%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,12; 36,66</t>
+          <t>32,16; 39,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,72; 33,86</t>
+          <t>28,88; 39,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,15; 32,69</t>
+          <t>32,26; 44,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,17; 32,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,42; 48,32</t>
+          <t>29,89; 42,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,44; 40,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,75; 34,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,95; 37,02</t>
+          <t>37,27; 43,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,8; 34,46</t>
+          <t>31,2; 39,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42,48; 49,18</t>
+          <t>31,5; 42,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,98; 37,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,63; 32,89</t>
+          <t>31,04; 41,65</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>30,26; 34,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>28,47; 32,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>42,89; 47,67</t>
+          <t>35,91; 40,76</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>31,62; 38,34</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>33,9; 42,13</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>31,51; 39,7</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33,83%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29,72%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29,91%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29,53%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30,71%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>37,97%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31,26%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>34,17%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>32,5%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>35,55%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>35,93%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>30,51%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>32,08%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>31,04%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>33,18%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>31,14; 36,85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26,8; 33,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27,18; 32,72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>26,56; 33,15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>27,51; 34,09</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35,58; 40,61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28,78; 33,89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>31,97; 36,75</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>30,2; 35,21</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>32,66; 38,51</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>33,93; 37,67</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>28,7; 32,69</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>30,23; 33,92</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>29,1; 33,12</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>31,16; 35,53</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cierta dificultad o más para llegar a fin de mes (tasa de respuesta: 99,21%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>99862</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>136107</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>212292</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>307542</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>161498</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>127626</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>193699</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>265865</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>377511</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>311745</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>227488</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>329806</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>478158</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>685053</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>473243</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>75222; 130939</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>102700; 196977</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>176331; 250389</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>260610; 374628</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>103915; 204896</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>101666; 152269</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>159645; 231449</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>228897; 303180</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>334514; 427384</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>260809; 371819</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>194214; 264685</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>281500; 382704</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>428863; 532745</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>618232; 762847</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>378838; 548685</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>433.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>228920</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>248241</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>362258</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>520471</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>333674</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>260067</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>316215</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>470569</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>546130</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>415478</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>488987</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>564456</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>832828</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1066600</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>749152</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>187020; 275503</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>200260; 294576</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>310710; 424620</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>452759; 603136</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>278721; 399299</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>219276; 302300</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>263534; 362503</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>418394; 527156</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>488506; 602241</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>356406; 471149</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>426323; 550699</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>498285; 645032</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>754594; 907059</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>972950; 1162568</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>662265; 835477</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>78487</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>136618</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>117119</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>178080</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>168484</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>116673</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>117900</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>188600</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>218971</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>183154</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>195161</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>254518</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>305719</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>397051</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>351637</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>56587; 106839</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>100649; 182897</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>86684; 154418</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>141736; 229744</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>126805; 229605</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>90404; 149831</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>88166; 153676</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>153252; 221905</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>183870; 259616</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>147567; 220703</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>160066; 236256</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>208857; 317311</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>256017; 354558</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>343522; 461156</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>293593; 418591</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>651.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>738370</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>497642</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>318451</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>374428</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>823674</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>484027</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>275004</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>344220</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1562044</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>981669</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>593455</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>718648</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>663960; 816484</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>418507; 571110</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>268420; 372378</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>318252; 449986</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>752934; 884225</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>428816; 548116</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>233750; 314387</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>296356; 397662</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1466817; 1665111</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>892708; 1082402</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>533535; 663168</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>636337; 801753</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>361.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>580.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>409.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>544.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>530.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>432.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1030.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>741.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>943.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>891.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>753.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1145639</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1018607</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1010121</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1006093</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1038083</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1328040</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1111842</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1200039</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1142612</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1254596</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2473680</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2130449</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>2210160</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>2148704</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>2292680</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1054372; 1248007</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>918492; 1140067</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>917717; 1104811</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>905173; 1129718</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>929906; 1152297</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1244334; 1420374</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1023719; 1205185</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1122999; 1290691</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1061860; 1237935</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1152577; 1359071</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2335639; 2592970</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>2004519; 2282800</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>2082815; 2336621</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>2014875; 2293227</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>2153113; 2455008</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
